--- a/old maximov/streams.xlsx
+++ b/old maximov/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B6B994-A3A8-4D7C-8F4F-3331570DC462}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509F3EE7-9EFA-4741-8AD8-5082F116D242}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -142,36 +142,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -268,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -321,30 +297,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -354,19 +306,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -730,7 +670,8 @@
         <v>936.68156613505778</v>
       </c>
       <c r="E2" s="10">
-        <v>516.20000000000005</v>
+        <f>516.2/2</f>
+        <v>258.10000000000002</v>
       </c>
       <c r="F2" s="6">
         <v>0.78029999999999999</v>
@@ -763,7 +704,8 @@
         <v>861.6540258565509</v>
       </c>
       <c r="E3" s="10">
-        <v>516.20000000000005</v>
+        <f>E2</f>
+        <v>258.10000000000002</v>
       </c>
       <c r="F3" s="6">
         <f>F2</f>
@@ -806,102 +748,105 @@
         <v>694.17566837116192</v>
       </c>
       <c r="E4" s="10">
-        <v>516.20000000000005</v>
+        <f t="shared" ref="E4:E8" si="0">E3</f>
+        <v>258.10000000000002</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F8" si="0">F3</f>
+        <f t="shared" ref="F4:F8" si="1">F3</f>
         <v>0.78029999999999999</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ref="G4:G8" si="1">G3</f>
+        <f t="shared" ref="G4:G8" si="2">G3</f>
         <v>0.1237</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H8" si="2">H3</f>
+        <f t="shared" ref="H4:H8" si="3">H3</f>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I8" si="3">I3</f>
+        <f t="shared" ref="I4:I8" si="4">I3</f>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J8" si="4">J3</f>
+        <f t="shared" ref="J4:J8" si="5">J3</f>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="19">
         <v>237.7</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="20">
         <v>0.1</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="20">
         <f>[1]!PropsSI("H","P",C5*10^6,"T",B5+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,$F$2:$J$2))/1000</f>
         <v>620.26903390006612</v>
       </c>
-      <c r="E5" s="29">
-        <v>516.20000000000005</v>
-      </c>
-      <c r="F5" s="27">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
+        <v>258.10000000000002</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" si="1"/>
         <v>0.78029999999999999</v>
       </c>
-      <c r="G5" s="28">
-        <f t="shared" si="1"/>
+      <c r="G5" s="20">
+        <f t="shared" si="2"/>
         <v>0.1237</v>
       </c>
-      <c r="H5" s="28">
-        <f t="shared" si="2"/>
+      <c r="H5" s="20">
+        <f t="shared" si="3"/>
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I5" s="28">
-        <f t="shared" si="3"/>
+      <c r="I5" s="20">
+        <f t="shared" si="4"/>
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J5" s="30">
-        <f t="shared" si="4"/>
+      <c r="J5" s="21">
+        <f t="shared" si="5"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="19">
         <v>234.6</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="20">
         <v>0.1</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="20">
         <f>[1]!PropsSI("H","P",C6*10^6,"T",B6+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,$F$2:$J$2))/1000</f>
         <v>616.94013362407065</v>
       </c>
-      <c r="E6" s="29">
-        <v>516.20000000000005</v>
-      </c>
-      <c r="F6" s="27">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
+        <v>258.10000000000002</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" si="1"/>
         <v>0.78029999999999999</v>
       </c>
-      <c r="G6" s="28">
-        <f t="shared" si="1"/>
+      <c r="G6" s="20">
+        <f t="shared" si="2"/>
         <v>0.1237</v>
       </c>
-      <c r="H6" s="28">
-        <f t="shared" si="2"/>
+      <c r="H6" s="20">
+        <f t="shared" si="3"/>
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I6" s="28">
-        <f t="shared" si="3"/>
+      <c r="I6" s="20">
+        <f t="shared" si="4"/>
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J6" s="30">
-        <f t="shared" si="4"/>
+      <c r="J6" s="21">
+        <f t="shared" si="5"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -920,26 +865,27 @@
         <v>554.28479929805155</v>
       </c>
       <c r="E7" s="10">
-        <v>516.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>258.10000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78029999999999999</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1237</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -958,26 +904,27 @@
         <v>483.53396409527977</v>
       </c>
       <c r="E8" s="10">
-        <v>516.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>258.10000000000002</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78029999999999999</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1237</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -990,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1033,19 +980,19 @@
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="6">
         <f>[1]!PropsSI("T","P",C3*10^6,"Q",1,"Water")-273.15</f>
         <v>297.93803699482987</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="7">
         <f>C4</f>
         <v>8.3412000000000006</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="7">
         <f>[1]!PropsSI("H","P",C3*10^6,"Q",1,"Water")/1000</f>
         <v>2753.5078389371197</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="8">
         <f>E4</f>
         <v>61.51</v>
       </c>
@@ -1054,18 +1001,18 @@
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>296.8</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="7">
         <f>C5</f>
         <v>8.3412000000000006</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="7">
         <f>[1]!PropsSI("H","T",B4+273.15,"P",C4*10^6,"Water")/1000</f>
         <v>1327.0479061845726</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="8">
         <f>E5</f>
         <v>61.51</v>
       </c>
@@ -1074,22 +1021,22 @@
       <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="6">
         <v>166.4</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="7">
         <v>8.3412000000000006</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="7">
         <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
         <v>707.65532284347023</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="8">
         <v>61.51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="7">
@@ -1099,45 +1046,45 @@
         <v>61.51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="11">
         <v>212.3</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="7">
         <v>0.68700000000000006</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="7">
         <f>[1]!PropsSI("H","T",B7+273.15,"P",C7*10^6,"Water")/1000</f>
         <v>2873.213986925984</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="13">
         <v>15.51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="6">
         <f>[1]!PropsSI("T","P",C8*10^6,"Q",1,"Water")-273.15</f>
         <v>164.5122412241837</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="7">
         <v>0.6925</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="7">
         <f>[1]!PropsSI("H","P",C8*10^6,"Q",1,"Water")/1000</f>
         <v>2762.2974320407106</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="8">
         <v>15.51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="6">
@@ -1155,7 +1102,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="6">
